--- a/etl_repo/report/DNB_Deposito Garantie Stelsel_2020-12-31.xlsx
+++ b/etl_repo/report/DNB_Deposito Garantie Stelsel_2020-12-31.xlsx
@@ -64,16 +64,16 @@
     <t>Total Pay Out Amount :</t>
   </si>
   <si>
-    <t>10/02/2023 23:05:41</t>
+    <t>12/02/2023 19:15:42</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>258950.0</t>
-  </si>
-  <si>
-    <t>256950.0</t>
+    <t>359000.0</t>
+  </si>
+  <si>
+    <t>302100.0</t>
   </si>
   <si>
     <t>KNAB - DNB Deposito Garantie Stelsel Report</t>
@@ -578,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="E15">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -598,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>77500</v>
+        <v>127450</v>
       </c>
       <c r="E16">
-        <v>77500</v>
+        <v>100000</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -618,10 +618,10 @@
         <v>9</v>
       </c>
       <c r="D17">
-        <v>77500</v>
+        <v>127450</v>
       </c>
       <c r="E17">
-        <v>77500</v>
+        <v>100000</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -638,10 +638,10 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
